--- a/backend/product_predictions.xlsx
+++ b/backend/product_predictions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>S. No.</t>
   </si>
@@ -58,19 +58,31 @@
     <t>YARDLEY_SOAP</t>
   </si>
   <si>
-    <t>2024-12-10 09:24:40</t>
-  </si>
-  <si>
-    <t>2024-12-10 09:24:42</t>
-  </si>
-  <si>
-    <t>2024-12-10 09:24:43</t>
-  </si>
-  <si>
-    <t>2024-12-10 09:24:44</t>
-  </si>
-  <si>
-    <t>2024-12-10 09:24:46</t>
+    <t>2024-12-10 10:04:49</t>
+  </si>
+  <si>
+    <t>2024-12-10 10:04:50</t>
+  </si>
+  <si>
+    <t>2024-12-10 10:04:51</t>
+  </si>
+  <si>
+    <t>2024-12-10 10:04:52</t>
+  </si>
+  <si>
+    <t>2024-12-10 10:04:53</t>
+  </si>
+  <si>
+    <t>2024-12-10 10:05:02</t>
+  </si>
+  <si>
+    <t>2024-12-10 10:05:03</t>
+  </si>
+  <si>
+    <t>2024-12-10 10:05:05</t>
+  </si>
+  <si>
+    <t>2024-12-10 10:05:06</t>
   </si>
 </sst>
 </file>
@@ -428,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,6 +544,90 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
